--- a/src/main/resources/template/phonebook_template.xlsx
+++ b/src/main/resources/template/phonebook_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev_sync\2_Github\phonebook-converter\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E346F59F-83DE-45F7-9E06-0C9FD72C3141}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D548375-29BF-45BC-8D4F-81B3BD09F22E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name, Vorname</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>56789</t>
+  </si>
+  <si>
+    <t>Musterstr. 5</t>
+  </si>
+  <si>
+    <t>Berlin</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -611,9 +617,15 @@
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
